--- a/contratos/contratos-9-2014.xlsx
+++ b/contratos/contratos-9-2014.xlsx
@@ -733,7 +733,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -877,7 +877,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
@@ -985,7 +985,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1426,697 +1426,697 @@
     <t>56</t>
   </si>
   <si>
-    <t>2.720,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>41.350,00</t>
-  </si>
-  <si>
-    <t>51.550,00</t>
-  </si>
-  <si>
-    <t>1.301.781,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>734,98</t>
-  </si>
-  <si>
-    <t>798,00</t>
-  </si>
-  <si>
-    <t>745,00</t>
-  </si>
-  <si>
-    <t>3.025,00</t>
-  </si>
-  <si>
-    <t>85.000,00</t>
-  </si>
-  <si>
-    <t>14.340,00</t>
-  </si>
-  <si>
-    <t>5.483,98</t>
-  </si>
-  <si>
-    <t>4.098,38</t>
-  </si>
-  <si>
-    <t>106.675,00</t>
-  </si>
-  <si>
-    <t>629.237,84</t>
-  </si>
-  <si>
-    <t>10.659,40</t>
-  </si>
-  <si>
-    <t>8.390,00</t>
-  </si>
-  <si>
-    <t>7.990,80</t>
-  </si>
-  <si>
-    <t>9.455,00</t>
-  </si>
-  <si>
-    <t>14.131,60</t>
-  </si>
-  <si>
-    <t>8.865,00</t>
-  </si>
-  <si>
-    <t>2.666,00</t>
-  </si>
-  <si>
-    <t>6.021,00</t>
-  </si>
-  <si>
-    <t>12.239,32</t>
-  </si>
-  <si>
-    <t>532,00</t>
-  </si>
-  <si>
-    <t>3.395,03</t>
-  </si>
-  <si>
-    <t>12.049,99</t>
-  </si>
-  <si>
-    <t>6.376,51</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>50.064,97</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>148,93</t>
-  </si>
-  <si>
-    <t>926,90</t>
-  </si>
-  <si>
-    <t>31.849,40</t>
-  </si>
-  <si>
-    <t>18.321,18</t>
-  </si>
-  <si>
-    <t>32.806,65</t>
-  </si>
-  <si>
-    <t>3.995,21</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>4.150,35</t>
-  </si>
-  <si>
-    <t>31,38</t>
-  </si>
-  <si>
-    <t>64,74</t>
-  </si>
-  <si>
-    <t>13.438,00</t>
-  </si>
-  <si>
-    <t>315,00</t>
-  </si>
-  <si>
-    <t>496,50</t>
-  </si>
-  <si>
-    <t>234,70</t>
-  </si>
-  <si>
-    <t>317,64</t>
-  </si>
-  <si>
-    <t>1.152.682,00</t>
-  </si>
-  <si>
-    <t>24.416,20</t>
-  </si>
-  <si>
-    <t>833,28</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>12.039,00</t>
-  </si>
-  <si>
-    <t>22.797,00</t>
-  </si>
-  <si>
-    <t>17.941,77</t>
-  </si>
-  <si>
-    <t>9.354,80</t>
-  </si>
-  <si>
-    <t>402,14</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>923,65</t>
-  </si>
-  <si>
-    <t>4.407,61</t>
-  </si>
-  <si>
-    <t>1.219,94</t>
-  </si>
-  <si>
-    <t>4.867,80</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>11.010,00</t>
-  </si>
-  <si>
-    <t>3.502,80</t>
-  </si>
-  <si>
-    <t>4.180,08</t>
-  </si>
-  <si>
-    <t>180,84</t>
-  </si>
-  <si>
-    <t>3,40</t>
-  </si>
-  <si>
-    <t>99.800,76</t>
-  </si>
-  <si>
-    <t>1.078,10</t>
-  </si>
-  <si>
-    <t>5.286,77</t>
-  </si>
-  <si>
-    <t>1.539,29</t>
-  </si>
-  <si>
-    <t>443,54</t>
-  </si>
-  <si>
-    <t>976,00</t>
-  </si>
-  <si>
-    <t>121,00</t>
-  </si>
-  <si>
-    <t>1.940,20</t>
-  </si>
-  <si>
-    <t>9.926,65</t>
-  </si>
-  <si>
-    <t>38.267,45</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>492,71</t>
-  </si>
-  <si>
-    <t>1.165,00</t>
-  </si>
-  <si>
-    <t>989,00</t>
-  </si>
-  <si>
-    <t>1.924,30</t>
-  </si>
-  <si>
-    <t>12.608,40</t>
-  </si>
-  <si>
-    <t>242,20</t>
-  </si>
-  <si>
-    <t>278,86</t>
-  </si>
-  <si>
-    <t>2.076,51</t>
-  </si>
-  <si>
-    <t>4.070,00</t>
-  </si>
-  <si>
-    <t>2.440,00</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>21.252,00</t>
-  </si>
-  <si>
-    <t>32.051,00</t>
-  </si>
-  <si>
-    <t>9.700,00</t>
-  </si>
-  <si>
-    <t>498,00</t>
-  </si>
-  <si>
-    <t>35.477,00</t>
-  </si>
-  <si>
-    <t>1.176,00</t>
-  </si>
-  <si>
-    <t>1.678,00</t>
-  </si>
-  <si>
-    <t>16.680,00</t>
-  </si>
-  <si>
-    <t>2.422,00</t>
-  </si>
-  <si>
-    <t>468,67</t>
-  </si>
-  <si>
-    <t>999,96</t>
-  </si>
-  <si>
-    <t>52,85</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>7.294,78</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>345.761,96</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>1.360,00</t>
-  </si>
-  <si>
-    <t>240,26</t>
-  </si>
-  <si>
-    <t>9.163,91</t>
-  </si>
-  <si>
-    <t>1.152,50</t>
-  </si>
-  <si>
-    <t>810,00</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>2.340,00</t>
-  </si>
-  <si>
-    <t>17.152,56</t>
-  </si>
-  <si>
-    <t>5.140,70</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>356,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>9,12</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>4.098,00</t>
-  </si>
-  <si>
-    <t>2.125,68</t>
-  </si>
-  <si>
-    <t>568,00</t>
-  </si>
-  <si>
-    <t>494,50</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>113,44</t>
-  </si>
-  <si>
-    <t>5.732,84</t>
-  </si>
-  <si>
-    <t>5.407,00</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>682,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>2.450,00</t>
-  </si>
-  <si>
-    <t>4.645,00</t>
-  </si>
-  <si>
-    <t>21.960,00</t>
-  </si>
-  <si>
-    <t>83.564,00</t>
-  </si>
-  <si>
-    <t>4.328,83</t>
-  </si>
-  <si>
-    <t>18,56</t>
-  </si>
-  <si>
-    <t>4.150,00</t>
-  </si>
-  <si>
-    <t>1.490,00</t>
-  </si>
-  <si>
-    <t>5.521,50</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>3.740,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>96.800,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.566,08</t>
-  </si>
-  <si>
-    <t>1.360,50</t>
-  </si>
-  <si>
-    <t>3.877,50</t>
-  </si>
-  <si>
-    <t>110,01</t>
-  </si>
-  <si>
-    <t>962,40</t>
-  </si>
-  <si>
-    <t>2.589,99</t>
-  </si>
-  <si>
-    <t>292,10</t>
-  </si>
-  <si>
-    <t>700.000,00</t>
-  </si>
-  <si>
-    <t>30.580,80</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>12.298,65</t>
-  </si>
-  <si>
-    <t>32.390,40</t>
-  </si>
-  <si>
-    <t>488,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>2.275,00</t>
-  </si>
-  <si>
-    <t>492,20</t>
-  </si>
-  <si>
-    <t>4.680,00</t>
-  </si>
-  <si>
-    <t>64.912,00</t>
-  </si>
-  <si>
-    <t>42.764,00</t>
-  </si>
-  <si>
-    <t>1.634,57</t>
-  </si>
-  <si>
-    <t>956,00</t>
-  </si>
-  <si>
-    <t>4.340,00</t>
-  </si>
-  <si>
-    <t>6.340,00</t>
-  </si>
-  <si>
-    <t>165,92</t>
-  </si>
-  <si>
-    <t>187,50</t>
-  </si>
-  <si>
-    <t>220,20</t>
-  </si>
-  <si>
-    <t>506,00</t>
-  </si>
-  <si>
-    <t>81,81</t>
-  </si>
-  <si>
-    <t>336,34</t>
-  </si>
-  <si>
-    <t>9.823,88</t>
-  </si>
-  <si>
-    <t>3.486,00</t>
-  </si>
-  <si>
-    <t>80.709,00</t>
-  </si>
-  <si>
-    <t>4.559,36</t>
-  </si>
-  <si>
-    <t>2.175,00</t>
-  </si>
-  <si>
-    <t>1.558,28</t>
-  </si>
-  <si>
-    <t>1.955,67</t>
-  </si>
-  <si>
-    <t>3.347,52</t>
-  </si>
-  <si>
-    <t>4.095,00</t>
-  </si>
-  <si>
-    <t>1.908,40</t>
-  </si>
-  <si>
-    <t>2.961,00</t>
-  </si>
-  <si>
-    <t>1.420,00</t>
-  </si>
-  <si>
-    <t>50.217,30</t>
-  </si>
-  <si>
-    <t>982,00</t>
-  </si>
-  <si>
-    <t>359,07</t>
-  </si>
-  <si>
-    <t>4.077,25</t>
-  </si>
-  <si>
-    <t>9.450,00</t>
-  </si>
-  <si>
-    <t>2.786,90</t>
-  </si>
-  <si>
-    <t>795.867,82</t>
-  </si>
-  <si>
-    <t>1.524,60</t>
-  </si>
-  <si>
-    <t>708,26</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>51.100,00</t>
-  </si>
-  <si>
-    <t>2.120,00</t>
-  </si>
-  <si>
-    <t>4.980,00</t>
-  </si>
-  <si>
-    <t>34.774,00</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>179.336,00</t>
-  </si>
-  <si>
-    <t>189.240,00</t>
-  </si>
-  <si>
-    <t>42.800,00</t>
-  </si>
-  <si>
-    <t>108.020,00</t>
-  </si>
-  <si>
-    <t>107.650,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>59.500,00</t>
-  </si>
-  <si>
-    <t>244.344,00</t>
-  </si>
-  <si>
-    <t>137.948,00</t>
-  </si>
-  <si>
-    <t>268.304,00</t>
-  </si>
-  <si>
-    <t>191.553,75</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>360.580,00</t>
-  </si>
-  <si>
-    <t>25.900,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>14.215,50</t>
-  </si>
-  <si>
-    <t>511.500,00</t>
-  </si>
-  <si>
-    <t>854,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>1.550,00</t>
+    <t>2720.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>41350.00</t>
+  </si>
+  <si>
+    <t>51550.00</t>
+  </si>
+  <si>
+    <t>1301781.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>734.98</t>
+  </si>
+  <si>
+    <t>798.00</t>
+  </si>
+  <si>
+    <t>745.00</t>
+  </si>
+  <si>
+    <t>3025.00</t>
+  </si>
+  <si>
+    <t>85000.00</t>
+  </si>
+  <si>
+    <t>14340.00</t>
+  </si>
+  <si>
+    <t>5483.98</t>
+  </si>
+  <si>
+    <t>4098.38</t>
+  </si>
+  <si>
+    <t>106675.00</t>
+  </si>
+  <si>
+    <t>629237.84</t>
+  </si>
+  <si>
+    <t>10659.40</t>
+  </si>
+  <si>
+    <t>8390.00</t>
+  </si>
+  <si>
+    <t>7990.80</t>
+  </si>
+  <si>
+    <t>9455.00</t>
+  </si>
+  <si>
+    <t>14131.60</t>
+  </si>
+  <si>
+    <t>8865.00</t>
+  </si>
+  <si>
+    <t>2666.00</t>
+  </si>
+  <si>
+    <t>6021.00</t>
+  </si>
+  <si>
+    <t>12239.32</t>
+  </si>
+  <si>
+    <t>532.00</t>
+  </si>
+  <si>
+    <t>3395.03</t>
+  </si>
+  <si>
+    <t>12049.99</t>
+  </si>
+  <si>
+    <t>6376.51</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>50064.97</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>148.93</t>
+  </si>
+  <si>
+    <t>926.90</t>
+  </si>
+  <si>
+    <t>31849.40</t>
+  </si>
+  <si>
+    <t>18321.18</t>
+  </si>
+  <si>
+    <t>32806.65</t>
+  </si>
+  <si>
+    <t>3995.21</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>4150.35</t>
+  </si>
+  <si>
+    <t>31.38</t>
+  </si>
+  <si>
+    <t>64.74</t>
+  </si>
+  <si>
+    <t>13438.00</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>496.50</t>
+  </si>
+  <si>
+    <t>234.70</t>
+  </si>
+  <si>
+    <t>317.64</t>
+  </si>
+  <si>
+    <t>1152682.00</t>
+  </si>
+  <si>
+    <t>24416.20</t>
+  </si>
+  <si>
+    <t>833.28</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>12039.00</t>
+  </si>
+  <si>
+    <t>22797.00</t>
+  </si>
+  <si>
+    <t>17941.77</t>
+  </si>
+  <si>
+    <t>9354.80</t>
+  </si>
+  <si>
+    <t>402.14</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>923.65</t>
+  </si>
+  <si>
+    <t>4407.61</t>
+  </si>
+  <si>
+    <t>1219.94</t>
+  </si>
+  <si>
+    <t>4867.80</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>11010.00</t>
+  </si>
+  <si>
+    <t>3502.80</t>
+  </si>
+  <si>
+    <t>4180.08</t>
+  </si>
+  <si>
+    <t>180.84</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>99800.76</t>
+  </si>
+  <si>
+    <t>1078.10</t>
+  </si>
+  <si>
+    <t>5286.77</t>
+  </si>
+  <si>
+    <t>1539.29</t>
+  </si>
+  <si>
+    <t>443.54</t>
+  </si>
+  <si>
+    <t>976.00</t>
+  </si>
+  <si>
+    <t>121.00</t>
+  </si>
+  <si>
+    <t>1940.20</t>
+  </si>
+  <si>
+    <t>9926.65</t>
+  </si>
+  <si>
+    <t>38267.45</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>492.71</t>
+  </si>
+  <si>
+    <t>1165.00</t>
+  </si>
+  <si>
+    <t>989.00</t>
+  </si>
+  <si>
+    <t>1924.30</t>
+  </si>
+  <si>
+    <t>12608.40</t>
+  </si>
+  <si>
+    <t>242.20</t>
+  </si>
+  <si>
+    <t>278.86</t>
+  </si>
+  <si>
+    <t>2076.51</t>
+  </si>
+  <si>
+    <t>4070.00</t>
+  </si>
+  <si>
+    <t>2440.00</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>21252.00</t>
+  </si>
+  <si>
+    <t>32051.00</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>498.00</t>
+  </si>
+  <si>
+    <t>35477.00</t>
+  </si>
+  <si>
+    <t>1176.00</t>
+  </si>
+  <si>
+    <t>1678.00</t>
+  </si>
+  <si>
+    <t>16680.00</t>
+  </si>
+  <si>
+    <t>2422.00</t>
+  </si>
+  <si>
+    <t>468.67</t>
+  </si>
+  <si>
+    <t>999.96</t>
+  </si>
+  <si>
+    <t>52.85</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>7294.78</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>345761.96</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>1360.00</t>
+  </si>
+  <si>
+    <t>240.26</t>
+  </si>
+  <si>
+    <t>9163.91</t>
+  </si>
+  <si>
+    <t>1152.50</t>
+  </si>
+  <si>
+    <t>810.00</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>2340.00</t>
+  </si>
+  <si>
+    <t>17152.56</t>
+  </si>
+  <si>
+    <t>5140.70</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>356.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>4098.00</t>
+  </si>
+  <si>
+    <t>2125.68</t>
+  </si>
+  <si>
+    <t>568.00</t>
+  </si>
+  <si>
+    <t>494.50</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>113.44</t>
+  </si>
+  <si>
+    <t>5732.84</t>
+  </si>
+  <si>
+    <t>5407.00</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>682.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>2450.00</t>
+  </si>
+  <si>
+    <t>4645.00</t>
+  </si>
+  <si>
+    <t>21960.00</t>
+  </si>
+  <si>
+    <t>83564.00</t>
+  </si>
+  <si>
+    <t>4328.83</t>
+  </si>
+  <si>
+    <t>18.56</t>
+  </si>
+  <si>
+    <t>4150.00</t>
+  </si>
+  <si>
+    <t>1490.00</t>
+  </si>
+  <si>
+    <t>5521.50</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>3740.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>96800.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1566.08</t>
+  </si>
+  <si>
+    <t>1360.50</t>
+  </si>
+  <si>
+    <t>3877.50</t>
+  </si>
+  <si>
+    <t>110.01</t>
+  </si>
+  <si>
+    <t>962.40</t>
+  </si>
+  <si>
+    <t>2589.99</t>
+  </si>
+  <si>
+    <t>292.10</t>
+  </si>
+  <si>
+    <t>700000.00</t>
+  </si>
+  <si>
+    <t>30580.80</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>12298.65</t>
+  </si>
+  <si>
+    <t>32390.40</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>2275.00</t>
+  </si>
+  <si>
+    <t>492.20</t>
+  </si>
+  <si>
+    <t>4680.00</t>
+  </si>
+  <si>
+    <t>64912.00</t>
+  </si>
+  <si>
+    <t>42764.00</t>
+  </si>
+  <si>
+    <t>1634.57</t>
+  </si>
+  <si>
+    <t>956.00</t>
+  </si>
+  <si>
+    <t>4340.00</t>
+  </si>
+  <si>
+    <t>6340.00</t>
+  </si>
+  <si>
+    <t>165.92</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>220.20</t>
+  </si>
+  <si>
+    <t>506.00</t>
+  </si>
+  <si>
+    <t>81.81</t>
+  </si>
+  <si>
+    <t>336.34</t>
+  </si>
+  <si>
+    <t>9823.88</t>
+  </si>
+  <si>
+    <t>3486.00</t>
+  </si>
+  <si>
+    <t>80709.00</t>
+  </si>
+  <si>
+    <t>4559.36</t>
+  </si>
+  <si>
+    <t>2175.00</t>
+  </si>
+  <si>
+    <t>1558.28</t>
+  </si>
+  <si>
+    <t>1955.67</t>
+  </si>
+  <si>
+    <t>3347.52</t>
+  </si>
+  <si>
+    <t>4095.00</t>
+  </si>
+  <si>
+    <t>1908.40</t>
+  </si>
+  <si>
+    <t>2961.00</t>
+  </si>
+  <si>
+    <t>1420.00</t>
+  </si>
+  <si>
+    <t>50217.30</t>
+  </si>
+  <si>
+    <t>982.00</t>
+  </si>
+  <si>
+    <t>359.07</t>
+  </si>
+  <si>
+    <t>4077.25</t>
+  </si>
+  <si>
+    <t>9450.00</t>
+  </si>
+  <si>
+    <t>2786.90</t>
+  </si>
+  <si>
+    <t>795867.82</t>
+  </si>
+  <si>
+    <t>1524.60</t>
+  </si>
+  <si>
+    <t>708.26</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>51100.00</t>
+  </si>
+  <si>
+    <t>2120.00</t>
+  </si>
+  <si>
+    <t>4980.00</t>
+  </si>
+  <si>
+    <t>34774.00</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>179336.00</t>
+  </si>
+  <si>
+    <t>189240.00</t>
+  </si>
+  <si>
+    <t>42800.00</t>
+  </si>
+  <si>
+    <t>108020.00</t>
+  </si>
+  <si>
+    <t>107650.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>59500.00</t>
+  </si>
+  <si>
+    <t>244344.00</t>
+  </si>
+  <si>
+    <t>137948.00</t>
+  </si>
+  <si>
+    <t>268304.00</t>
+  </si>
+  <si>
+    <t>191553.75</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>360580.00</t>
+  </si>
+  <si>
+    <t>25900.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>14215.50</t>
+  </si>
+  <si>
+    <t>511500.00</t>
+  </si>
+  <si>
+    <t>854.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>1550.00</t>
   </si>
 </sst>
 </file>
